--- a/notebooks/wiretap.xlsx
+++ b/notebooks/wiretap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhailbhat/Desktop/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhailbhat/Desktop/Summer_Semester/foundations/Project-Work/Project-Work/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE204F3-E51D-E041-A600-F6B0016ADDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19167249-D4E4-CA44-B714-D7C1065C5EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{BCD73903-D745-7E4E-AD3E-02F78A6CB47C}"/>
+    <workbookView xWindow="780" yWindow="920" windowWidth="27640" windowHeight="15960" xr2:uid="{BCD73903-D745-7E4E-AD3E-02F78A6CB47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>Total authorized</t>
   </si>
   <si>
-    <t>Avg. reported cost</t>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -451,16 +451,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19617172-BC9D-484F-95D8-24EF8B3B0C48}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -468,64 +475,64 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -539,64 +546,64 @@
         <v>2008</v>
       </c>
       <c r="B2" s="1">
-        <v>1891</v>
+        <v>47624</v>
       </c>
       <c r="C2" s="1">
         <v>1891</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>1891</v>
+      </c>
+      <c r="E2">
         <v>29</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1266</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>29</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>54</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>92</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>43</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1593</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>58</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>24</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>73509</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>92</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>2707</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>514</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1703</v>
-      </c>
-      <c r="U2" s="1">
-        <v>47624</v>
       </c>
       <c r="V2">
         <v>846</v>
@@ -610,64 +617,64 @@
         <v>2009</v>
       </c>
       <c r="B3" s="1">
-        <v>2376</v>
+        <v>52200</v>
       </c>
       <c r="C3" s="1">
         <v>2376</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>2376</v>
+      </c>
+      <c r="E3">
         <v>29</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1627</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>28</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>29</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>35</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>82</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2046</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>61</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>63</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>73799</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>113</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>3673</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>688</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>1564</v>
-      </c>
-      <c r="U3" s="1">
-        <v>52200</v>
       </c>
       <c r="V3">
         <v>779</v>
@@ -681,64 +688,64 @@
         <v>2010</v>
       </c>
       <c r="B4" s="1">
+        <v>50085</v>
+      </c>
+      <c r="C4" s="1">
         <v>3195</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>3194</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>29</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1925</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>29</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>53</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>31</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>174</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>63</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2675</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>117</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>75</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>93078</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>118</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>3199</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>603</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2211</v>
-      </c>
-      <c r="U4" s="1">
-        <v>50085</v>
       </c>
       <c r="V4">
         <v>1144</v>
@@ -752,64 +759,64 @@
         <v>2011</v>
       </c>
       <c r="B5" s="1">
+        <v>49629</v>
+      </c>
+      <c r="C5" s="1">
         <v>2734</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>2732</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>29</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1777</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>46</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>113</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>72</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2334</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>51</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>96</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>91240</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>113</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>3716</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>868</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>2034</v>
-      </c>
-      <c r="U5" s="1">
-        <v>49629</v>
       </c>
       <c r="V5">
         <v>1535</v>
@@ -823,64 +830,64 @@
         <v>2012</v>
       </c>
       <c r="B6" s="1">
+        <v>50452</v>
+      </c>
+      <c r="C6" s="1">
         <v>3397</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>3395</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1932</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>67</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>116</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>41</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>2967</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>91</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>58</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>98562</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>104</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>3584</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>703</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>2247</v>
-      </c>
-      <c r="U6" s="1">
-        <v>50452</v>
       </c>
       <c r="V6">
         <v>1584</v>
@@ -894,64 +901,64 @@
         <v>2013</v>
       </c>
       <c r="B7" s="1">
+        <v>41119</v>
+      </c>
+      <c r="C7" s="1">
         <v>3577</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>3576</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2129</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>51</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>132</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>31</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>3115</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>83</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>139</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>92788</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>97</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>4558</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>811</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>2069</v>
-      </c>
-      <c r="U7" s="1">
-        <v>41119</v>
       </c>
       <c r="V7">
         <v>1612</v>
@@ -965,64 +972,64 @@
         <v>2014</v>
       </c>
       <c r="B8" s="1">
+        <v>39485</v>
+      </c>
+      <c r="C8" s="1">
         <v>3555</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3554</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1532</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>135</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>21</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>2170</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>72</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>93</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>81892</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>100</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>4349</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>886</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>2066</v>
-      </c>
-      <c r="U8" s="1">
-        <v>39485</v>
       </c>
       <c r="V8">
         <v>1451</v>
@@ -1036,64 +1043,64 @@
         <v>2015</v>
       </c>
       <c r="B9" s="1">
-        <v>4148</v>
+        <v>42216</v>
       </c>
       <c r="C9" s="1">
         <v>4148</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>4148</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>3297</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>220</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>221</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>3292</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>141</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>191</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>118583</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>114</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>6422</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>1454</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>2479</v>
-      </c>
-      <c r="U9" s="1">
-        <v>42216</v>
       </c>
       <c r="V9">
         <v>1733</v>
@@ -1107,64 +1114,64 @@
         <v>2016</v>
       </c>
       <c r="B10" s="1">
+        <v>74949</v>
+      </c>
+      <c r="C10" s="1">
         <v>3170</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>3168</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2096</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>248</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>171</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>21</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>1949</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>76</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>670</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>102108</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>173</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>10021</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>2034</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>2120</v>
-      </c>
-      <c r="U10" s="1">
-        <v>74949</v>
       </c>
       <c r="V10">
         <v>1088</v>
@@ -1178,64 +1185,64 @@
         <v>2017</v>
       </c>
       <c r="B11" s="1">
-        <v>3813</v>
+        <v>74718</v>
       </c>
       <c r="C11" s="1">
         <v>3813</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <v>3813</v>
+      </c>
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2369</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>469</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>39</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>200</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>22</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>2027</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>138</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>898</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>98749</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>149</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>5989</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>1178</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>2119</v>
-      </c>
-      <c r="U11" s="1">
-        <v>74718</v>
       </c>
       <c r="V11">
         <v>890</v>
@@ -1249,71 +1256,70 @@
         <v>2018</v>
       </c>
       <c r="B12" s="1">
+        <v>66807</v>
+      </c>
+      <c r="C12" s="1">
         <v>2939</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2937</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1355</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>389</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>130</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>1354</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>91</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>922</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>62681</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>119</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>22788</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>720</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>1260</v>
-      </c>
-      <c r="U12" s="1">
-        <v>66807</v>
       </c>
       <c r="W12" s="1">
         <v>2937</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1324,9 +1330,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1337,6 +1343,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
